--- a/【小轮子】/data/sun.xlsx
+++ b/【小轮子】/data/sun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\study\2018暑假\智能汽车课题组\For Weijian_20180704\代码\【小轮子】\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFA9DFE-D720-4C35-927B-54BD5872D640}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D01A869-7178-45D5-A216-FD98F0A7B837}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="7500" xr2:uid="{AC4E1C3F-BAFB-426C-91B0-6975057FAFF7}"/>
   </bookViews>
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F6D3F3-A6D0-4C6B-B3C7-9811497F764B}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:F5"/>
@@ -391,104 +391,284 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>0.74931073692736649</v>
       </c>
       <c r="B1">
-        <v>221</v>
+        <v>8.8262310795159549E-3</v>
       </c>
       <c r="C1">
         <v>0.75130417919131198</v>
       </c>
       <c r="D1">
-        <v>193</v>
+        <v>1.0905803243487597E-2</v>
       </c>
       <c r="E1">
         <v>0.71682119205298012</v>
       </c>
       <c r="F1">
-        <v>30</v>
+        <v>1.4698677119059285E-2</v>
+      </c>
+      <c r="G1">
+        <v>0.75130417919131198</v>
+      </c>
+      <c r="H1">
+        <v>1.0905803243487597E-2</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="M1">
+        <v>0.71682119205298012</v>
+      </c>
+      <c r="N1">
+        <v>1.4698677119059285E-2</v>
+      </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
+      <c r="P1">
+        <v>0</v>
+      </c>
+      <c r="Q1">
+        <v>0</v>
+      </c>
+      <c r="R1">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>8.5951494571566533E-2</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>1.4632718759145449E-2</v>
       </c>
       <c r="C2">
         <v>8.5367982158440797E-2</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>9.3023255813953487E-3</v>
       </c>
       <c r="E2">
         <v>0.13033112582781456</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>1.015228426395939E-2</v>
+      </c>
+      <c r="G2">
+        <v>8.5367982158440797E-2</v>
+      </c>
+      <c r="H2">
+        <v>1.2431485562524722E-3</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.13033112582781456</v>
+      </c>
+      <c r="N2">
+        <v>1.9598236158745713E-3</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>9.9643296624558009E-2</v>
       </c>
       <c r="B3">
-        <v>35</v>
+        <v>1.0457125784284434E-2</v>
       </c>
       <c r="C3">
         <v>0.10286046737127896</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>6.3264445381695485E-3</v>
       </c>
       <c r="E3">
         <v>9.6158940397350998E-2</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>8.0645161290322578E-3</v>
+      </c>
+      <c r="G3">
+        <v>0.10286046737127896</v>
+      </c>
+      <c r="H3">
+        <v>8.4760128835395835E-4</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>9.6158940397350998E-2</v>
+      </c>
+      <c r="N3">
+        <v>9.7991180793728563E-4</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1.2040685991993644E-2</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>1.3192612137203167E-2</v>
       </c>
       <c r="C4">
         <v>1.0569184524386696E-2</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>2.4193548387096774E-2</v>
       </c>
       <c r="E4">
         <v>9.2715231788079479E-3</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G4">
+        <v>1.0569184524386696E-2</v>
+      </c>
+      <c r="H4">
+        <v>3.390405153415833E-4</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>9.2715231788079479E-3</v>
+      </c>
+      <c r="N4">
+        <v>4.8995590396864281E-4</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4.0156388728796399E-2</v>
       </c>
       <c r="B5">
-        <v>14</v>
+        <v>1.2068965517241379E-2</v>
       </c>
       <c r="C5">
         <v>3.7932706293028216E-2</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>8.6419753086419745E-3</v>
       </c>
       <c r="E5">
         <v>3.4701986754966885E-2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>1.020408163265306E-2</v>
+      </c>
+      <c r="G5">
+        <v>3.7932706293028216E-2</v>
+      </c>
+      <c r="H5">
+        <v>3.9554726789851386E-4</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>3.4701986754966885E-2</v>
+      </c>
+      <c r="N5">
+        <v>4.8995590396864281E-4</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
